--- a/target_prices.xlsx
+++ b/target_prices.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7d072364968bd84/Programming/finances-investing/app-testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7d072364968bd84/Programming/finances-investing/investments-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32C9B712-B49F-4027-A8D6-A35FC9587140}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34FAFFBA-426A-45FC-8D42-5AEE8B6FC66D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{AFBED600-4DD2-45FB-B9DB-9C48D54FF126}"/>
+    <workbookView xWindow="24510" yWindow="2130" windowWidth="11100" windowHeight="11385" xr2:uid="{AFBED600-4DD2-45FB-B9DB-9C48D54FF126}"/>
   </bookViews>
   <sheets>
     <sheet name="target_prices" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">target_prices!$B$2:$I$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">target_prices!$B$2:$I$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -675,10 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +717,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
@@ -761,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -788,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
@@ -835,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -862,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -888,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>79</v>
       </c>
@@ -914,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
@@ -940,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
@@ -964,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>49</v>
       </c>
@@ -1059,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1133,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1160,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1233,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>51</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>52</v>
       </c>
@@ -1408,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>24</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>53</v>
       </c>
@@ -1553,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -1576,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>8</v>
       </c>
@@ -1602,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>9</v>
       </c>
@@ -1625,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>10</v>
       </c>
@@ -1717,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>23</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -1835,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>15</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>18</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>19</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>17</v>
       </c>
@@ -1953,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>54</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>12</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>20</v>
       </c>
@@ -2097,7 +2100,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I57" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
+  <autoFilter ref="B2:I59" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="nac"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I57">
       <sortCondition ref="B2:B57"/>
     </sortState>

--- a/target_prices.xlsx
+++ b/target_prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7d072364968bd84/Programming/finances-investing/investments-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34FAFFBA-426A-45FC-8D42-5AEE8B6FC66D}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16F9921F-3703-4BE3-897A-7AE5FF414A07}"/>
   <bookViews>
-    <workbookView xWindow="24510" yWindow="2130" windowWidth="11100" windowHeight="11385" xr2:uid="{AFBED600-4DD2-45FB-B9DB-9C48D54FF126}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{AFBED600-4DD2-45FB-B9DB-9C48D54FF126}"/>
   </bookViews>
   <sheets>
     <sheet name="target_prices" sheetId="2" r:id="rId1"/>
@@ -675,13 +675,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B2:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="B47" sqref="B47"/>
+      <selection pane="topRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +716,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
@@ -767,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -791,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
@@ -865,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -891,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>79</v>
       </c>
@@ -917,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
@@ -943,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
@@ -967,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>49</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1163,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
@@ -1189,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
@@ -1263,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>51</v>
       </c>
@@ -1361,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>52</v>
       </c>
@@ -1411,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1435,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
@@ -1459,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>24</v>
       </c>
@@ -1509,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>53</v>
       </c>
@@ -1582,7 +1581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>8</v>
       </c>
@@ -1605,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>9</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>10</v>
       </c>
@@ -1720,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>23</v>
       </c>
@@ -1838,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>15</v>
       </c>
@@ -1861,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>18</v>
       </c>
@@ -1884,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>19</v>
       </c>
@@ -1932,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>17</v>
       </c>
@@ -1956,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>54</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>12</v>
       </c>
@@ -2030,7 +2029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>20</v>
       </c>
@@ -2101,11 +2100,6 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:I59" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="nac"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I57">
       <sortCondition ref="B2:B57"/>
     </sortState>

--- a/target_prices.xlsx
+++ b/target_prices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7d072364968bd84/Programming/finances-investing/investments-app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7d072364968bd84/Programming/finances-investing/app-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16F9921F-3703-4BE3-897A-7AE5FF414A07}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DA14AC5-C157-4013-95AD-F8A114574AA4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{AFBED600-4DD2-45FB-B9DB-9C48D54FF126}"/>
   </bookViews>
@@ -216,15 +216,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>alexandre</t>
-  </si>
-  <si>
-    <t>rafael</t>
-  </si>
-  <si>
-    <t>giovana</t>
-  </si>
-  <si>
     <t>nac</t>
   </si>
   <si>
@@ -292,6 +283,15 @@
   </si>
   <si>
     <t>VVAR3</t>
+  </si>
+  <si>
+    <t>superman</t>
+  </si>
+  <si>
+    <t>batman</t>
+  </si>
+  <si>
+    <t>princesa</t>
   </si>
 </sst>
 </file>
@@ -675,12 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="E13" sqref="E13"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +696,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>56</v>
@@ -707,30 +708,30 @@
         <v>58</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E3" s="4">
         <v>140</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -748,13 +749,13 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E4" s="4">
         <v>18.5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -766,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -778,7 +779,7 @@
         <v>127</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -790,21 +791,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6" s="4">
         <v>285</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -822,13 +823,13 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" s="4">
         <v>36.25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -846,13 +847,13 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" s="4">
         <v>33.75</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -864,21 +865,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E9" s="4">
         <v>300</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -890,21 +891,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E10" s="4">
         <v>550</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -916,21 +917,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E11" s="4">
         <v>54</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -942,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
@@ -954,7 +955,7 @@
         <v>121</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -966,21 +967,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E13" s="4">
         <v>110</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -998,13 +999,13 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E14" s="4">
         <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -1022,13 +1023,13 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E15" s="4">
         <v>12.45</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -1046,13 +1047,13 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E16" s="4">
         <v>7.8</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -1064,21 +1065,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E17" s="4">
         <v>135</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1096,13 +1097,13 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E18" s="4">
         <v>50</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -1120,13 +1121,13 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E19" s="4">
         <v>41</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -1144,13 +1145,13 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E20" s="4">
         <v>25</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -1162,21 +1163,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E21" s="4">
         <v>400</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -1188,21 +1189,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E22" s="4">
         <v>2150</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -1220,13 +1221,13 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E23" s="4">
         <v>8.33</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -1238,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>170</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -1262,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>125</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -1286,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>117</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -1316,13 +1317,13 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E27" s="4">
         <v>12</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -1334,21 +1335,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E28" s="4">
         <v>165</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -1360,21 +1361,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E29" s="4">
         <v>130</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -1392,13 +1393,13 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E30" s="4">
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
@@ -1410,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>105</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -1434,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>108</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -1458,21 +1459,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E33" s="4">
         <v>1600</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
@@ -1490,13 +1491,13 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E34" s="4">
         <v>14.31</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -1508,21 +1509,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E35" s="4">
         <v>95</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -1540,13 +1541,13 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E36" s="4">
         <v>14.2</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -1563,13 +1564,13 @@
         <v>41</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E37" s="4">
         <v>30</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -1581,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>8</v>
       </c>
@@ -1592,7 +1593,7 @@
         <v>108</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -1604,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>9</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>92</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -1627,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>10</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>110</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -1655,13 +1656,13 @@
         <v>29</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E41" s="4">
         <v>80</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
@@ -1678,13 +1679,13 @@
         <v>28</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E42" s="4">
         <v>72</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -1701,13 +1702,13 @@
         <v>31</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E43" s="4">
         <v>28</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
@@ -1719,21 +1720,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E44" s="4">
         <v>200</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G44" s="2">
         <v>0</v>
@@ -1750,13 +1751,13 @@
         <v>42</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E45" s="4">
         <v>35</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -1773,13 +1774,13 @@
         <v>43</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E46" s="4">
         <v>20</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -1796,13 +1797,13 @@
         <v>44</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E47" s="4">
         <v>35</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -1819,13 +1820,13 @@
         <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E48" s="4">
         <v>73</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
@@ -1837,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>15</v>
       </c>
@@ -1848,7 +1849,7 @@
         <v>110</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -1860,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>18</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>116</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -1883,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>19</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>110</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -1913,13 +1914,13 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E52" s="4">
         <v>53</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -1931,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>17</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>110</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -1955,21 +1956,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E54" s="4">
         <v>45</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -1987,13 +1988,13 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E55" s="4">
         <v>9.6</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -2005,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>12</v>
       </c>
@@ -2017,7 +2018,7 @@
         <v>119</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -2029,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>20</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>108</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
@@ -2054,16 +2055,16 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E58" s="4">
         <v>115</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
@@ -2077,16 +2078,16 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E59" s="4">
         <v>21</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G59" s="2">
         <v>0</v>
@@ -2100,6 +2101,11 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:I59" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="nac"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I57">
       <sortCondition ref="B2:B57"/>
     </sortState>

--- a/target_prices.xlsx
+++ b/target_prices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7d072364968bd84/Programming/finances-investing/app-testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7d072364968bd84/Programming/finances-investing/investments-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DA14AC5-C157-4013-95AD-F8A114574AA4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{EA1F765F-6217-4272-BBA9-B0BD133EA9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{AFBED600-4DD2-45FB-B9DB-9C48D54FF126}"/>
   </bookViews>

--- a/target_prices.xlsx
+++ b/target_prices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7d072364968bd84/Programming/finances-investing/investments-app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7d072364968bd84/Programming/finances-investing/app-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{EA1F765F-6217-4272-BBA9-B0BD133EA9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DA14AC5-C157-4013-95AD-F8A114574AA4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{AFBED600-4DD2-45FB-B9DB-9C48D54FF126}"/>
   </bookViews>

--- a/target_prices.xlsx
+++ b/target_prices.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7d072364968bd84/Programming/finances-investing/app-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DA14AC5-C157-4013-95AD-F8A114574AA4}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8752F520-8E99-48D8-8039-7F9EC9DC1BAE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{AFBED600-4DD2-45FB-B9DB-9C48D54FF126}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFBED600-4DD2-45FB-B9DB-9C48D54FF126}"/>
   </bookViews>
   <sheets>
     <sheet name="target_prices" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">target_prices!$B$2:$I$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">target_prices!$B$2:$I$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="100">
   <si>
     <t>ENBR3</t>
   </si>
@@ -292,6 +292,51 @@
   </si>
   <si>
     <t>princesa</t>
+  </si>
+  <si>
+    <t>ALSO3</t>
+  </si>
+  <si>
+    <t>SOJA3</t>
+  </si>
+  <si>
+    <t>BRSR6</t>
+  </si>
+  <si>
+    <t>TRIS3</t>
+  </si>
+  <si>
+    <t>RECV3</t>
+  </si>
+  <si>
+    <t>PCAR3</t>
+  </si>
+  <si>
+    <t>BRBI11</t>
+  </si>
+  <si>
+    <t>RANI3</t>
+  </si>
+  <si>
+    <t>SIMH3</t>
+  </si>
+  <si>
+    <t>POMO3</t>
+  </si>
+  <si>
+    <t>SHUL4</t>
+  </si>
+  <si>
+    <t>KEPL3</t>
+  </si>
+  <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
+    <t>FESA4</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
   </si>
 </sst>
 </file>
@@ -676,22 +721,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
   <sheetPr filterMode="1"/>
-  <dimension ref="B2:I59"/>
+  <dimension ref="B2:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="18.5703125" style="2"/>
     <col min="5" max="5" width="18.5703125" style="4"/>
     <col min="6" max="16384" width="18.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>57</v>
       </c>
@@ -717,7 +761,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
@@ -743,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
@@ -767,224 +811,222 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="4">
         <v>127</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="F6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <v>285</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="4">
-        <v>36.25</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="4">
+        <v>36.25</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="4">
         <v>33.75</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="F9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="4">
-        <v>300</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="4">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="4">
-        <v>54</v>
+        <v>550</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E12" s="4">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="4">
-        <v>110</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="E13" s="2">
+        <v>23.46</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -993,67 +1035,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="4">
-        <v>19</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="2">
+        <v>22.13</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E15" s="4">
-        <v>12.45</v>
+        <v>121</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="4">
-        <v>7.8</v>
+        <v>110</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -1062,24 +1106,22 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="4">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1088,143 +1130,141 @@
         <v>1</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E18" s="4">
-        <v>50</v>
+        <v>12.45</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="4">
+        <v>135</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="4">
+        <v>50</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="4">
         <v>41</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="4">
-        <v>25</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="4">
-        <v>400</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2150</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="4">
-        <v>8.33</v>
+        <v>25</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>78</v>
@@ -1233,194 +1273,194 @@
         <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="4">
-        <v>170</v>
-      </c>
-      <c r="F24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D25" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E25" s="4">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="2">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2150</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="4">
+        <v>8.33</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="4">
-        <v>117</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="4">
-        <v>12</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="4">
-        <v>165</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E29" s="4">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E30" s="4">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
       </c>
       <c r="I30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="4">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>78</v>
@@ -1435,16 +1475,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E32" s="4">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>78</v>
@@ -1459,45 +1499,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E33" s="4">
-        <v>1600</v>
+        <v>165</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D34" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E34" s="4">
-        <v>14.31</v>
+        <v>130</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -1506,27 +1548,25 @@
         <v>0</v>
       </c>
       <c r="I34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="4">
-        <v>95</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="E35" s="2">
+        <v>35</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="G35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -1535,39 +1575,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E36" s="4">
-        <v>14.2</v>
+        <v>12</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E37" s="4">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>78</v>
@@ -1576,15 +1616,15 @@
         <v>1</v>
       </c>
       <c r="H37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
@@ -1605,242 +1645,245 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1600</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="4">
+        <v>14.31</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="4">
+        <v>95</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="2">
+        <v>32</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="4">
+        <v>30</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="4">
+        <v>108</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E48" s="4">
         <v>92</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+      <c r="F48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="4">
-        <v>110</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2">
-        <v>1</v>
-      </c>
-      <c r="I40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="4">
-        <v>80</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="4">
-        <v>72</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="4">
-        <v>28</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>1</v>
-      </c>
-      <c r="I43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="4">
-        <v>200</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
-        <v>1</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="4">
-        <v>35</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45" s="2">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="4">
-        <v>20</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G46" s="2">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="4">
-        <v>35</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G47" s="2">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="4">
-        <v>73</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48" s="2">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
-        <v>1</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
@@ -1861,143 +1904,141 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="4">
-        <v>116</v>
-      </c>
-      <c r="F50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="2">
+        <v>20</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E51" s="4">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2">
         <v>1</v>
       </c>
       <c r="I51" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="4">
-        <v>53</v>
-      </c>
-      <c r="F52" s="3" t="s">
+      <c r="E52" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="4">
-        <v>110</v>
-      </c>
-      <c r="F53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="2">
+        <v>10</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E54" s="4">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
       </c>
       <c r="H54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E55" s="4">
-        <v>9.6</v>
-      </c>
-      <c r="F55" s="3" t="s">
+      <c r="E55" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2006,108 +2047,459 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="4">
+        <v>28</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="4">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="4">
+        <v>35</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="2">
+        <v>12</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="4">
+        <v>20</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="4">
+        <v>35</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62" s="4">
+        <v>115</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E64" s="4">
+        <v>110</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="4">
+        <v>116</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="4">
+        <v>110</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2">
+        <v>1</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="4">
+        <v>53</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2">
+        <v>1</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="4">
+        <v>110</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2">
+        <v>1</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="4">
+        <v>21</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" s="4">
+        <v>45</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="4">
         <v>119</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G56" s="2">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2">
-        <v>1</v>
-      </c>
-      <c r="I56" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
+      <c r="F72" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E73" s="4">
         <v>108</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" s="2">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2">
-        <v>1</v>
-      </c>
-      <c r="I57" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E58" s="4">
-        <v>115</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G58" s="2">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E59" s="4">
-        <v>21</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" s="2">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0</v>
+      <c r="F73" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1</v>
+      </c>
+      <c r="I73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74" s="4">
+        <v>26</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1</v>
+      </c>
+      <c r="I74" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I59" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
-    <filterColumn colId="2">
+  <autoFilter ref="B2:I74" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
+    <filterColumn colId="6">
       <filters>
-        <filter val="nac"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I57">
-      <sortCondition ref="B2:B57"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I73">
+      <sortCondition ref="B2:B59"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target_prices.xlsx
+++ b/target_prices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7d072364968bd84/Programming/finances-investing/app-testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7d072364968bd84/Programming/finances-investing/investments-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="252" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8752F520-8E99-48D8-8039-7F9EC9DC1BAE}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{151955C3-E22B-48AA-8B45-2A7BF123384B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFBED600-4DD2-45FB-B9DB-9C48D54FF126}"/>
   </bookViews>
@@ -720,12 +720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B2:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -761,7 +760,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
@@ -787,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
@@ -811,7 +810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>85</v>
       </c>
@@ -859,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
@@ -885,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
@@ -959,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>76</v>
       </c>
@@ -985,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
@@ -1011,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>91</v>
       </c>
@@ -1035,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>87</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
@@ -1133,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1157,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1231,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
@@ -1279,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>97</v>
       </c>
@@ -1303,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
@@ -1329,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>98</v>
       </c>
@@ -1379,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1499,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>51</v>
       </c>
@@ -1525,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
@@ -1551,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>96</v>
       </c>
@@ -1671,320 +1670,320 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="4">
+        <v>26</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="4">
+      <c r="D41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="4">
         <v>14.31</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+      <c r="F41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="4">
         <v>95</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="2">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="D43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="4">
         <v>14.2</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
+      <c r="F43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="D44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="2">
         <v>32</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
+      <c r="F44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" s="4">
+      <c r="D45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="4">
         <v>30</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44" s="2">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="2">
-        <v>3</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="4">
-        <v>108</v>
-      </c>
-      <c r="F46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="4">
+        <v>108</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="2">
         <v>1</v>
       </c>
       <c r="I47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="4">
-        <v>92</v>
-      </c>
-      <c r="F48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2">
         <v>1</v>
       </c>
       <c r="I48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="4">
+        <v>92</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="4">
         <v>110</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G49" s="2">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2">
-        <v>1</v>
-      </c>
-      <c r="I49" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="2">
-        <v>20</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="4">
-        <v>80</v>
-      </c>
-      <c r="F51" s="3" t="s">
+      <c r="E51" s="2">
+        <v>20</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G51" s="2">
         <v>0</v>
       </c>
       <c r="H51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="E52" s="4">
+        <v>80</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G52" s="2">
         <v>0</v>
       </c>
       <c r="H52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E53" s="2">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>78</v>
@@ -2001,203 +2000,203 @@
     </row>
     <row r="54" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="4">
-        <v>72</v>
-      </c>
-      <c r="F54" s="3" t="s">
+      <c r="E54" s="2">
+        <v>10</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E55" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="E55" s="4">
+        <v>72</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="4">
-        <v>28</v>
-      </c>
-      <c r="F56" s="3" t="s">
+      <c r="E56" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G56" s="2">
         <v>0</v>
       </c>
       <c r="H56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="4">
+        <v>28</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E58" s="4">
         <v>200</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G57" s="2">
-        <v>0</v>
-      </c>
-      <c r="H57" s="2">
-        <v>1</v>
-      </c>
-      <c r="I57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E58" s="4">
+      <c r="D59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="4">
         <v>35</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G58" s="2">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
+      <c r="F59" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E59" s="2">
+      <c r="D60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="2">
         <v>12</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" s="2">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
+      <c r="F60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" s="4">
+      <c r="D61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="4">
         <v>20</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" s="2">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
+      <c r="F61" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E61" s="4">
+      <c r="D62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62" s="4">
         <v>35</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" s="2">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E62" s="4">
-        <v>115</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>78</v>
@@ -2214,22 +2213,22 @@
     </row>
     <row r="63" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E63" s="4">
-        <v>13.5</v>
+        <v>115</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="2">
         <v>0</v>
@@ -2237,36 +2236,36 @@
     </row>
     <row r="64" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E64" s="4">
-        <v>110</v>
+        <v>13.5</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="2">
         <v>1</v>
       </c>
       <c r="I64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E65" s="4">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>78</v>
@@ -2283,13 +2282,13 @@
     </row>
     <row r="66" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E66" s="4">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>78</v>
@@ -2306,13 +2305,13 @@
     </row>
     <row r="67" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E67" s="4">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>78</v>
@@ -2329,88 +2328,88 @@
     </row>
     <row r="68" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="4">
+        <v>53</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2">
+        <v>1</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E69" s="4">
         <v>110</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" s="2">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2">
-        <v>1</v>
-      </c>
-      <c r="I68" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
+      <c r="F69" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E69" s="4">
+      <c r="D70" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" s="4">
         <v>21</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" s="2">
-        <v>0</v>
-      </c>
-      <c r="H69" s="2">
-        <v>0</v>
-      </c>
-      <c r="I69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
+      <c r="F70" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E71" s="4">
         <v>45</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="G70" s="2">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2">
-        <v>0</v>
-      </c>
-      <c r="I70" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E71" s="4">
-        <v>9.6</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
@@ -2424,13 +2423,13 @@
     </row>
     <row r="72" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E72" s="4">
-        <v>119</v>
+        <v>9.6</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>78</v>
@@ -2439,21 +2438,21 @@
         <v>1</v>
       </c>
       <c r="H72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="4">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>78</v>
@@ -2470,15 +2469,15 @@
     </row>
     <row r="74" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E74" s="4">
-        <v>26</v>
-      </c>
-      <c r="F74" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G74" s="2">
@@ -2493,13 +2492,8 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:I74" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I73">
-      <sortCondition ref="B2:B59"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I74">
+      <sortCondition ref="B2:B74"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target_prices.xlsx
+++ b/target_prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7d072364968bd84/Programming/finances-investing/investments-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="257" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{151955C3-E22B-48AA-8B45-2A7BF123384B}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4016C1F2-C3CB-4B23-8B62-8287C395AEC6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFBED600-4DD2-45FB-B9DB-9C48D54FF126}"/>
   </bookViews>
@@ -720,11 +720,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -760,7 +761,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
@@ -834,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -858,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
@@ -932,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
@@ -958,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>76</v>
       </c>
@@ -984,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>21</v>
       </c>
@@ -1498,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>51</v>
       </c>
@@ -1524,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>14</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>24</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>53</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>8</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>9</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>10</v>
       </c>
@@ -2093,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>23</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>15</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>18</v>
       </c>
@@ -2303,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>19</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>17</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>54</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>12</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>20</v>
       </c>
@@ -2492,6 +2493,11 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:I74" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="nac"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I74">
       <sortCondition ref="B2:B74"/>
     </sortState>

--- a/target_prices.xlsx
+++ b/target_prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7d072364968bd84/Programming/finances-investing/investments-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4016C1F2-C3CB-4B23-8B62-8287C395AEC6}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03A984C3-822E-4D9B-959B-0EEA890E89AE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFBED600-4DD2-45FB-B9DB-9C48D54FF126}"/>
   </bookViews>
@@ -720,7 +720,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B2:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -761,7 +760,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
@@ -835,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -859,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
@@ -933,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
@@ -959,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>76</v>
       </c>
@@ -985,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
@@ -1059,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
@@ -1181,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1303,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
@@ -1353,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
@@ -1427,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1451,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>21</v>
       </c>
@@ -1499,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>51</v>
       </c>
@@ -1525,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
@@ -1599,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>14</v>
       </c>
@@ -1622,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
@@ -1645,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>24</v>
       </c>
@@ -1717,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>53</v>
       </c>
@@ -1835,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>8</v>
       </c>
@@ -1881,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>9</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>10</v>
       </c>
@@ -2094,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>23</v>
       </c>
@@ -2258,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>15</v>
       </c>
@@ -2281,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>18</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>19</v>
       </c>
@@ -2350,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>17</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>54</v>
       </c>
@@ -2445,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>12</v>
       </c>
@@ -2468,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>20</v>
       </c>
@@ -2493,11 +2492,6 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:I74" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="nac"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I74">
       <sortCondition ref="B2:B74"/>
     </sortState>

--- a/target_prices.xlsx
+++ b/target_prices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7d072364968bd84/Programming/finances-investing/investments-app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7d072364968bd84/Programming/finances-investing/app-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03A984C3-822E-4D9B-959B-0EEA890E89AE}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C2F3F78-1FB4-44EE-99FE-0390A5178495}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFBED600-4DD2-45FB-B9DB-9C48D54FF126}"/>
   </bookViews>
@@ -723,8 +723,8 @@
   <dimension ref="B2:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/target_prices.xlsx
+++ b/target_prices.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7d072364968bd84/Programming/finances-investing/app-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="254" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C2F3F78-1FB4-44EE-99FE-0390A5178495}"/>
+  <xr:revisionPtr revIDLastSave="287" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05D1CC69-49B5-4FA5-9538-BF0BD23C7BA5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFBED600-4DD2-45FB-B9DB-9C48D54FF126}"/>
+    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{AFBED600-4DD2-45FB-B9DB-9C48D54FF126}"/>
   </bookViews>
   <sheets>
     <sheet name="target_prices" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">target_prices!$B$2:$I$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">target_prices!$B$2:$I$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="102">
   <si>
     <t>ENBR3</t>
   </si>
@@ -337,6 +337,12 @@
   </si>
   <si>
     <t>MGLU3</t>
+  </si>
+  <si>
+    <t>SYNE3</t>
+  </si>
+  <si>
+    <t>AGRO3</t>
   </si>
 </sst>
 </file>
@@ -720,11 +726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
-  <dimension ref="B2:I74"/>
+  <dimension ref="B2:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -762,40 +768,38 @@
     </row>
     <row r="3" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E3" s="4">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4">
-        <v>18.5</v>
+        <v>121</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>78</v>
@@ -804,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -812,38 +816,38 @@
     </row>
     <row r="5" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="2">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4">
+        <v>170</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="4">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>78</v>
@@ -860,40 +864,38 @@
     </row>
     <row r="7" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E7" s="4">
-        <v>285</v>
+        <v>117</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E8" s="4">
-        <v>36.25</v>
+        <v>105</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>78</v>
@@ -902,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -910,14 +912,14 @@
     </row>
     <row r="9" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E9" s="4">
-        <v>33.75</v>
+        <v>108</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>78</v>
@@ -934,19 +936,17 @@
     </row>
     <row r="10" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E10" s="4">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -960,51 +960,47 @@
     </row>
     <row r="11" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E11" s="4">
-        <v>550</v>
+        <v>92</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E12" s="4">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -1012,62 +1008,62 @@
     </row>
     <row r="13" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="2">
-        <v>23.46</v>
-      </c>
-      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4">
+        <v>110</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="2">
-        <v>22.13</v>
-      </c>
-      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4">
+        <v>116</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="4">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>78</v>
@@ -1084,91 +1080,91 @@
     </row>
     <row r="16" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E16" s="4">
         <v>110</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E17" s="4">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E18" s="4">
-        <v>12.45</v>
+        <v>108</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" s="4">
-        <v>7.8</v>
+        <v>140</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -1177,48 +1173,50 @@
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="4">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" s="4">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -1232,17 +1230,19 @@
     </row>
     <row r="22" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" s="4">
-        <v>41</v>
+        <v>550</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -1251,28 +1251,30 @@
         <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23" s="4">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
@@ -1280,20 +1282,22 @@
     </row>
     <row r="24" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="2">
-        <v>10</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
+      </c>
+      <c r="E24" s="4">
+        <v>110</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="G24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1304,16 +1308,16 @@
     </row>
     <row r="25" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="4">
-        <v>400</v>
+        <v>135</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>61</v>
@@ -1322,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
@@ -1330,17 +1334,19 @@
     </row>
     <row r="26" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="2">
-        <v>22</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
+      </c>
+      <c r="E26" s="4">
+        <v>400</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
@@ -1349,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1380,17 +1386,19 @@
     </row>
     <row r="28" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" s="4">
-        <v>8.33</v>
+        <v>165</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -1404,23 +1412,25 @@
     </row>
     <row r="29" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D29" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E29" s="4">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
@@ -1428,88 +1438,94 @@
     </row>
     <row r="30" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="D30" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E30" s="4">
-        <v>125</v>
+        <v>1600</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
       </c>
       <c r="I30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E31" s="4">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D32" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32" s="4">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
       </c>
       <c r="I32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E33" s="4">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>61</v>
@@ -1521,24 +1537,22 @@
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="4">
-        <v>130</v>
+        <v>18.5</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -1552,14 +1566,14 @@
     </row>
     <row r="35" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="2">
-        <v>35</v>
+      <c r="E35" s="4">
+        <v>29.25</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>78</v>
@@ -1576,16 +1590,16 @@
     </row>
     <row r="36" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E36" s="4">
-        <v>12</v>
-      </c>
-      <c r="F36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G36" s="2">
@@ -1600,13 +1614,13 @@
     </row>
     <row r="37" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E37" s="4">
-        <v>105</v>
+        <v>36.25</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>78</v>
@@ -1615,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
@@ -1623,13 +1637,13 @@
     </row>
     <row r="38" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E38" s="4">
-        <v>108</v>
+        <v>33.75</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>78</v>
@@ -1646,25 +1660,22 @@
     </row>
     <row r="39" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E39" s="4">
-        <v>1600</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>61</v>
+        <v>23.46</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -1672,45 +1683,45 @@
     </row>
     <row r="40" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="4">
-        <v>26</v>
+        <v>22.13</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E41" s="4">
-        <v>14.31</v>
+        <v>19</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
@@ -1718,22 +1729,19 @@
     </row>
     <row r="42" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E42" s="4">
-        <v>95</v>
+        <v>12.45</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -1744,13 +1752,13 @@
     </row>
     <row r="43" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E43" s="4">
-        <v>14.2</v>
+        <v>7.8</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>78</v>
@@ -1767,42 +1775,42 @@
     </row>
     <row r="44" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="2">
-        <v>32</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="E44" s="4">
+        <v>50</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="4">
         <v>41</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="4">
-        <v>30</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -1813,59 +1821,59 @@
     </row>
     <row r="46" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="2">
-        <v>3</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="E46" s="4">
+        <v>25</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E47" s="4">
-        <v>108</v>
-      </c>
-      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E48" s="2">
-        <v>7.5</v>
+      <c r="E48" s="4">
+        <v>22</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>78</v>
@@ -1874,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="2">
         <v>0</v>
@@ -1882,13 +1890,13 @@
     </row>
     <row r="49" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E49" s="4">
-        <v>92</v>
+        <v>8.33</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>78</v>
@@ -1897,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="2">
         <v>1</v>
@@ -1905,13 +1913,13 @@
     </row>
     <row r="50" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E50" s="4">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>78</v>
@@ -1928,14 +1936,14 @@
     </row>
     <row r="51" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="2">
-        <v>20</v>
+      <c r="E51" s="4">
+        <v>35</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>78</v>
@@ -1952,14 +1960,14 @@
     </row>
     <row r="52" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E52" s="4">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>78</v>
@@ -1976,44 +1984,44 @@
     </row>
     <row r="53" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E53" s="2">
-        <v>7.5</v>
+      <c r="E53" s="4">
+        <v>26</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="2">
-        <v>10</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="E54" s="4">
+        <v>14.31</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2024,14 +2032,14 @@
     </row>
     <row r="55" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E55" s="4">
-        <v>72</v>
+        <v>14.2</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>78</v>
@@ -2040,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="2">
         <v>1</v>
@@ -2048,14 +2056,14 @@
     </row>
     <row r="56" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="2">
-        <v>16.5</v>
+      <c r="E56" s="4">
+        <v>32</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>78</v>
@@ -2072,22 +2080,22 @@
     </row>
     <row r="57" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E57" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="2">
         <v>1</v>
@@ -2095,25 +2103,22 @@
     </row>
     <row r="58" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E58" s="4">
-        <v>200</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>61</v>
+        <v>3</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="G58" s="2">
         <v>0</v>
       </c>
       <c r="H58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="2">
         <v>0</v>
@@ -2121,36 +2126,36 @@
     </row>
     <row r="59" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E59" s="4">
-        <v>35</v>
-      </c>
-      <c r="F59" s="3" t="s">
+        <v>7.5</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E60" s="2">
-        <v>12</v>
+      <c r="E60" s="4">
+        <v>20</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>78</v>
@@ -2167,22 +2172,22 @@
     </row>
     <row r="61" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E61" s="4">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="2">
         <v>0</v>
@@ -2190,19 +2195,19 @@
     </row>
     <row r="62" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E62" s="4">
-        <v>35</v>
-      </c>
-      <c r="F62" s="3" t="s">
+        <v>7.5</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -2213,19 +2218,19 @@
     </row>
     <row r="63" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E63" s="4">
-        <v>115</v>
-      </c>
-      <c r="F63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -2236,65 +2241,65 @@
     </row>
     <row r="64" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E64" s="4">
-        <v>13.5</v>
+        <v>66</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="2">
         <v>1</v>
       </c>
       <c r="I64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E65" s="4">
-        <v>110</v>
-      </c>
-      <c r="F65" s="3" t="s">
+        <v>16.5</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E66" s="4">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="2">
         <v>1</v>
@@ -2305,36 +2310,36 @@
     </row>
     <row r="67" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E67" s="4">
-        <v>110</v>
-      </c>
-      <c r="F67" s="3" t="s">
+        <v>16.87</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="2">
         <v>1</v>
       </c>
       <c r="I67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E68" s="4">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>78</v>
@@ -2343,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="2">
         <v>1</v>
@@ -2351,42 +2356,42 @@
     </row>
     <row r="69" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E69" s="4">
-        <v>110</v>
-      </c>
-      <c r="F69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="2">
         <v>1</v>
       </c>
       <c r="I69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E70" s="4">
-        <v>21</v>
-      </c>
-      <c r="F70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -2397,19 +2402,16 @@
     </row>
     <row r="71" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E71" s="4">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
@@ -2423,13 +2425,13 @@
     </row>
     <row r="72" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E72" s="4">
-        <v>9.6</v>
+        <v>115</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>78</v>
@@ -2446,36 +2448,36 @@
     </row>
     <row r="73" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E73" s="4">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" s="2">
         <v>1</v>
       </c>
       <c r="I73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E74" s="4">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>78</v>
@@ -2490,10 +2492,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="75" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" s="4">
+        <v>21</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:I74" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I74">
-      <sortCondition ref="B2:B74"/>
+  <autoFilter ref="B2:I76" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I76">
+      <sortCondition ref="D2:D76"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target_prices.xlsx
+++ b/target_prices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7d072364968bd84/Programming/finances-investing/app-testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7d072364968bd84/Programming/finances-investing-app/app-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="287" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05D1CC69-49B5-4FA5-9538-BF0BD23C7BA5}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="8_{2759A7E6-2EB7-4028-9137-4DC1A8C5F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43A61C66-E850-4E0E-928C-25608FA9B0A8}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{AFBED600-4DD2-45FB-B9DB-9C48D54FF126}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFBED600-4DD2-45FB-B9DB-9C48D54FF126}"/>
   </bookViews>
   <sheets>
     <sheet name="target_prices" sheetId="2" r:id="rId1"/>
@@ -726,11 +726,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -766,7 +767,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
@@ -790,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -814,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
@@ -838,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -862,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -886,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -910,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -934,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -958,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
@@ -982,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1150,18 +1151,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E19" s="4">
-        <v>140</v>
+        <v>285</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>61</v>
@@ -1170,24 +1171,24 @@
         <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="4">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>61</v>
@@ -1196,30 +1197,30 @@
         <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="4">
-        <v>300</v>
+        <v>135</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
@@ -1228,79 +1229,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="4">
-        <v>550</v>
+        <v>2150</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="4">
-        <v>54</v>
+        <v>1600</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" s="5" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="4">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
@@ -1308,19 +1309,17 @@
     </row>
     <row r="25" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="4">
-        <v>135</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
@@ -1329,30 +1328,28 @@
         <v>1</v>
       </c>
       <c r="I25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="4">
-        <v>400</v>
+        <v>33.75</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
@@ -1360,51 +1357,47 @@
     </row>
     <row r="27" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="4">
-        <v>2150</v>
+        <v>19</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
         <v>1</v>
       </c>
       <c r="I27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" s="4">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
@@ -1412,25 +1405,23 @@
     </row>
     <row r="29" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" s="4">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
@@ -1438,51 +1429,47 @@
     </row>
     <row r="30" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" s="4">
-        <v>1600</v>
+        <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
       </c>
       <c r="I30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" s="4">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
@@ -1490,51 +1477,47 @@
     </row>
     <row r="32" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="4">
-        <v>200</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>61</v>
+        <v>26</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="4">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -1542,14 +1525,14 @@
     </row>
     <row r="34" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="4">
-        <v>18.5</v>
+        <v>66</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>78</v>
@@ -1558,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
@@ -1566,38 +1549,38 @@
     </row>
     <row r="35" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="4">
-        <v>29.25</v>
-      </c>
-      <c r="F35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E36" s="4">
-        <v>30</v>
+        <v>16.87</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>78</v>
@@ -1614,88 +1597,91 @@
     </row>
     <row r="37" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="4">
-        <v>36.25</v>
-      </c>
-      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E38" s="4">
-        <v>33.75</v>
+        <v>19</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2">
         <v>1</v>
       </c>
       <c r="I38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E39" s="4">
-        <v>23.46</v>
-      </c>
-      <c r="F39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>46</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E40" s="4">
-        <v>22.13</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>78</v>
+        <v>140</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="G40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -1704,64 +1690,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E41" s="4">
-        <v>19</v>
+        <v>550</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E42" s="4">
-        <v>12.45</v>
+        <v>54</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E43" s="4">
-        <v>7.8</v>
+        <v>110</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -1770,47 +1765,53 @@
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E44" s="4">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E45" s="4">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -1819,44 +1820,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E46" s="4">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
       </c>
       <c r="H46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>53</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E47" s="4">
-        <v>10</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="G47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -1865,21 +1872,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>54</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E48" s="4">
-        <v>22</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="G48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -1890,13 +1900,13 @@
     </row>
     <row r="49" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E49" s="4">
-        <v>8.33</v>
+        <v>115</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>78</v>
@@ -1905,21 +1915,21 @@
         <v>1</v>
       </c>
       <c r="H49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E50" s="4">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>78</v>
@@ -1928,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2">
         <v>1</v>
@@ -1936,14 +1946,14 @@
     </row>
     <row r="51" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E51" s="4">
-        <v>35</v>
+        <v>29.25</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>78</v>
@@ -1960,68 +1970,68 @@
     </row>
     <row r="52" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E52" s="4">
-        <v>12</v>
+        <v>36.25</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E53" s="4">
-        <v>26</v>
+        <v>23.46</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E54" s="4">
-        <v>14.31</v>
-      </c>
-      <c r="F54" s="3" t="s">
+        <v>22.13</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2032,67 +2042,67 @@
     </row>
     <row r="55" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E55" s="4">
-        <v>14.2</v>
+        <v>12.45</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
       </c>
       <c r="I55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E56" s="4">
-        <v>32</v>
-      </c>
-      <c r="F56" s="2" t="s">
+        <v>7.8</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
       </c>
       <c r="I56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="4">
         <v>41</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E57" s="4">
-        <v>30</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2103,13 +2113,13 @@
     </row>
     <row r="58" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E58" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>78</v>
@@ -2126,13 +2136,13 @@
     </row>
     <row r="59" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E59" s="4">
-        <v>7.5</v>
+        <v>22</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>78</v>
@@ -2149,45 +2159,45 @@
     </row>
     <row r="60" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E60" s="4">
-        <v>20</v>
-      </c>
-      <c r="F60" s="2" t="s">
+        <v>8.33</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
       </c>
       <c r="I60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E61" s="4">
-        <v>92</v>
-      </c>
-      <c r="F61" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G61" s="2">
         <v>0</v>
       </c>
       <c r="H61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="2">
         <v>0</v>
@@ -2195,19 +2205,19 @@
     </row>
     <row r="62" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E62" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="F62" s="2" t="s">
+        <v>14.31</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -2218,105 +2228,105 @@
     </row>
     <row r="63" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E63" s="4">
-        <v>10</v>
-      </c>
-      <c r="F63" s="2" t="s">
+        <v>14.2</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
       </c>
       <c r="I63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E64" s="4">
-        <v>66</v>
-      </c>
-      <c r="F64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E65" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="F65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
       <c r="I65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E66" s="4">
-        <v>28</v>
-      </c>
-      <c r="F66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G66" s="2">
         <v>0</v>
       </c>
       <c r="H66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E67" s="4">
-        <v>16.87</v>
+        <v>7.5</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>78</v>
@@ -2325,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="2">
         <v>0</v>
@@ -2333,36 +2343,36 @@
     </row>
     <row r="68" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E68" s="4">
-        <v>35</v>
-      </c>
-      <c r="F68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
       </c>
       <c r="I68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E69" s="4">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>78</v>
@@ -2371,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="2">
         <v>0</v>
@@ -2379,19 +2389,19 @@
     </row>
     <row r="70" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E70" s="4">
-        <v>20</v>
-      </c>
-      <c r="F70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -2402,19 +2412,19 @@
     </row>
     <row r="71" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E71" s="4">
-        <v>35</v>
-      </c>
-      <c r="F71" s="3" t="s">
+        <v>16.5</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -2425,13 +2435,13 @@
     </row>
     <row r="72" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E72" s="4">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>78</v>
@@ -2443,27 +2453,27 @@
         <v>0</v>
       </c>
       <c r="I72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E73" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="2">
         <v>0</v>
@@ -2471,13 +2481,13 @@
     </row>
     <row r="74" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E74" s="4">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>78</v>
@@ -2486,10 +2496,10 @@
         <v>1</v>
       </c>
       <c r="H74" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2540,8 +2550,13 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:I76" xr:uid="{381D9DDF-000D-4659-B5FF-AAC75BE15227}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I76">
-      <sortCondition ref="D2:D76"/>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="nac"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B25:I76">
+      <sortCondition descending="1" ref="H2:H76"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
